--- a/宏观经济.xlsx
+++ b/宏观经济.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="313">
   <si>
     <t>上海：努力打造国际一流营商环境</t>
   </si>
@@ -921,6 +921,112 @@
   </si>
   <si>
     <t>当前，各地在做好防控的前提下，积极精准推进复工复产，生产生活有序恢复。今天（3月21日），三峡集团投资75.9亿元的长江大保护项目在武汉集中开复工。现在，湖北正按照“分区分级、分类分时、科学灵活”的原则，聚焦汽车、电子等重点支柱产业，加快推进全省企业复工复产。让生产生活有序恢复，各地积极行动。全球首艘23000箱液化天然气动力集装箱船日前在上海开启试航之旅。为确保4月底如期交付法国客商，船厂所在的浦东新区开通“返岗直通车”，帮助船厂从外地接回1500多名员工。而在被誉为“东方美谷”的上海奉贤，当地政府积极协调化妆品生产企业和酒店餐饮企业共享员工，缓解用工紧张。本周，上海对一般企业取消备案直接复工，全市重点企业复工率达到99.5%。在这个春暖花开的时节，江西聚焦旅游产业，一方面在全省实施2.5天双休日弹性工作制，一方面向江西籍游客发放1000万元的旅游消费券。海南对旅游企业2020年的新增贷款，省级财政给予贴息30%；旅游企业用电用水用气，可缓缴3个月费用。目前已有56家景区景点开放。</t>
+  </si>
+  <si>
+    <t>宏观经济</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我国积极稳步推进重大工程项目建设</t>
+  </si>
+  <si>
+    <t>当前，一批能源、交通、科技、电力等领域的重大工程稳步推进，展现了经济活力，传递着中国信心。京雄高速公路是雄安新区四纵三横区域高速公路网的中轴线，是连接北京城区和雄安新区最便捷的高速通道，在河北段制梁钢筋加工配送中心，施工人员正在加紧生产。深中通道是世界级超大的“桥、岛、隧、地下互通”集群工程，目前首节沉管浮运安装正在进行第一次舾装作业。20日，我国自主研发的世界首艘自航式沉管运输安装一体船完成轻载试验。截至3月20日，966个计划总投资10亿元以上公路水路续建项目中，复工率为88.5%，民航30个重点机场建设项目复工率为86.6%。铁路建设方面，除个别因气候原因暂不具备复工条件外，其他111个在建项目均已全部复工，京沈高铁、京雄城际、中老铁路等项目都在加紧建设。除了交通基础设施，一批国家重点科技工程也在按下“快进键”。在山东东营，C919大型客机102架机刚刚完成飞行推力确定试飞。中国自主研发建造的全新一代万米载人潜水器目前在无锡完成总装，并进行水池实验。在我国能源大动脉——中俄东线天然气管道项目施工现场，建设者通过数字化云平台等降低防疫风险，提升施工建设综合功效12%。在重大清洁能源工程乌东德水电站施工现场、在沿海石化产业基地连云港石化产业基地，能源领域的重大工程也在加紧建设。2022年北京冬奥会重点配套电网工程，世界首个四端可再生能源柔性直流电网示范工程正在抓紧带电调试， 张家口地区的清洁绿色能源将通过这个直流电网送入北京，为冬奥场馆提供100%清洁能源。在江苏苏州，1000千伏淮南经南京送上海特高压通道的重要枢纽变电站正在进行扩建。国家发展改革委表示，下一步将加快推进国家规划已明确的重大工程和基础设施建设，加快5G网络、数据中心等新型基础设施建设进度。</t>
+  </si>
+  <si>
+    <t>国新办发布会：一系列金融支持复工复产措施正在产生显著成效</t>
+  </si>
+  <si>
+    <t>国务院新闻办今天（3月22日）举行新闻发布会，介绍我国应对国际疫情影响、维护金融市场稳定的有关情况。中国人民银行副行长陈雨露表示，我国出台的一系列疫情防控和支持企业复工复产的金融政策措施正在产生显著成效。3000亿元专项再贷款支持的疫情防控重点企业已超过5000家，实际融资成本只有1.26%左右。增加的5000亿元再贷款、再贴现额度，累计发放优惠利率贷款已超过1300亿元。2月份，一般贷款利率是5.49%，比贷款市场报价利率改革之前下降了0.61个百分点。我国金融体系运行总体平稳，金融市场预期稳定。中国银保监会副主席周亮透露，除湖北以外，全国银行网点复工率达到95%，保险网点的复工率则超过了97%。银行机构为抗击疫情提供的信贷支持已经超过了1.8万亿元人民币，1—2月份，新增制造业贷款2500亿元，明显高于上年同期增幅。自1月25日以来，已经有20%左右的中小微企业到期贷款本息享受了延期还款的安排，以帮助暂时遇到困难的企业渡过难关。中国证监会副主席李超介绍说，春节后A股市场展现出比较强的韧性和抗风险能力，与国际市场比，波动幅度相对较小，投资者的行为更加理性。目前金融市场流动性合理充裕，上市公司复工率已超过98%，股市的估值水平处于历史低位。外部环境的影响不会改变中国资本市场平稳向好的趋势。国家外汇管理局副局长宣昌能表示，当前我国跨境资金流动总体稳定，外汇市场供求基本平衡。今年以来，人民币汇率总体保持稳定，从中长期看，人民币也不存在大幅贬值的基础。</t>
+  </si>
+  <si>
+    <t>各地精准施策 跑出复工复产加速度</t>
+  </si>
+  <si>
+    <t>根据国内外疫情防控和经济形势的阶段性变化，各地精准施策，因时因势调整工作着力点和应对举措，积极有序恢复经济运行，跑出复工复产加速度。今天（3月22日）上午，江苏派出的首批11辆湖北复工专车抵达昆山。车上216名工人来自湖北麻城，返程全免费，而且在返岗前已经通过湖北健康绿码认证。据统计，在苏州工作生活的湖北人有20万。接下来，返岗人员免费输送服务将逐步扩展到湖北全省。汽车及汽车零配件制造是浙江的特色产业。最近这段时间，受外地原材料供应不足影响，杭州的这家汽车零配件生产商濒临停产。为解决原材料紧缺和销路不畅等问题，浙江利用“税务大数据平台”进行关键词搜索匹配，帮助企业寻找替代商。目前，已经有361户复产复销困难的企业通过这个平台，找到了3800多家供应和销售商。同样，甘肃省在充分利用大数据平台协助企业供需对接的同时，紧盯招商引资、项目建设不松劲。酒泉30个重大项目集中开工，总投资60亿元的张掖碳谷项目全面动工，一批重点工程加速推进，按下经济发展的“快进键”。新疆从降低经营成本、加大财政支持等6方面提出24条具体措施，支持个体工商户渡过难关、稳定发展。147万个体工商户享受到了实实在在的优惠政策。兼顾疫情防控和对外经贸合作，各地的外贸经济也在回暖。目前，广西1348家年进出口额超过1亿美元的外贸企业，产能已恢复74%以上。商务部门针对摸排出的影响外贸企业复工复产的具体困难，出台了保生产、保订单、稳出口、扩进口、控风险18条外贸稳增长措施。湖北仙桃有非织造布出口企业146家，产业规模位居湖北第一，产品销往130多个国家。当地不仅利用财政、金融出口信保等手段，有序推进医用防护品外贸生产企业复工复产，还组织本地企业对接上海、深圳等地的大型外贸集团公司，拓宽出口渠道。眼下，来自韩国、德国、意大利等21个国家的订单不断增加，预计4月份出口额还将增长40%以上。</t>
+  </si>
+  <si>
+    <t>宏观经济</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一条开始复苏的步行街</t>
+  </si>
+  <si>
+    <t>这段日子，不少地方步行街的餐饮企业陆陆续续地开门迎客了，但是客流量明显减少。那如何让步行街的餐饮业能够再次火起来呢？一起来看记者从江苏发回的报道。江苏常州的南大街步行街区，聚集着大大小小千余家餐饮企业。这段时间，虽然步行街的餐饮企业相继开门营业，但是生意却很冷清。廖宜球经营着一家麻糕铺子，原来不愁卖的麻糕，现在一天却卖不了多少。廖师傅动了线上销售的念头，可是线上销售到底怎么做，廖师傅一窍不通。像廖师傅这样想做线上销售又不知从何着手的商户，在步行街就有200多家。为了帮助他们尽快恢复经营，南大街街道主动联系第三方平台，紧急搭建小程序等各类线上平台。线上销售看似简单，实际事无巨细。街道把每个环节都摸清，有针对性地帮助，有商家没有打包餐具，街道就积极协调解决；外卖订单不断增多，街区专门设立了“外卖小哥休息站”，为他们提供免费茶水、置换电池、临时充电等服务；外卖平台担心商户防疫不到位，街道就出面担保，明确企业主体责任，指导公共区域的消杀工作。从3月8日开始，南大街步行街区开始逐步恢复堂食，线上线下一起发力，让廖师傅每天就能卖300多块麻糕。轻装上阵，让商户们减少了不少压力。原本在步行街经营一家粉丝汤铺的丁伟开始了自己的扩店计划。目前，常州南大街步行街区餐饮企业复工率达到了92.3%，在线上线下一起发力下，步行街餐饮业复苏势头强劲。</t>
+  </si>
+  <si>
+    <t>全国各地精准施策 加速推动复工复产</t>
+  </si>
+  <si>
+    <t>习近平总书记指出，在全国上下和广大人民群众共同努力下，全国疫情防控形势持续向好、生产生活秩序加快恢复的态势不断巩固和拓展，统筹推进疫情防控和经济社会发展工作取得积极成效。当前，各地正积极围绕解决企业需求，精准施策，打通“堵点”、补上“断点”，提升复工复产效率，确保实现决胜全面建成小康社会、决战脱贫攻坚的目标任务。复工关系就业稳定，复产关系经济发展。习近平总书记强调，要全面强化稳就业举措。这两天，来自湖北的务工专列陆续抵达广东。两省打通堵点，互认健康码，务工人员到达后，不用再检测、隔离。截至目前，湖北的返粤务工专列，已累计向广东“点对点”输送务工人员超4000名。黑龙江开展“春风行动”，利用“云”招聘，将全省的人力资源进行整合，省内外一个平台，通过大数据的精准对接，让农民工尽快到岗，为企业用工减缓压力。目前，当地已发布各类招聘岗位13.2万余个。这两天，湖南的这家装备制造企业又将10多台工程机械发往泰国。截至今天（3月23日），仅3月份的20多天时间里，企业就已累计向“一带一路”沿线国家发送工程机械价值10亿元。可就在复工初期，企业的生产却受到原料不足的限制。产业链环环相扣，一个环节阻滞，上下游企业都无法运转。如何把断掉的产业链补上？作为工程机械制造大省，湖南着力解决上下游企业生产困难，帮助企业解决从防疫物资到原料、资金难题，推动全产业链复工复产。资金是中小微企业复工复产中面临的一大难题。针对中小微企业融资审批难、成本高、程序多的三大门槛，河南整合全省工商、社保等18类5620万条核心政务数据，用大数据给企业画“信用肖像”，并免费向银行提供贷款审批所需数据，减少审核环节。各地的重点项目也在有序推进。天津国家会展中心建设已经满负荷运转，主体结构将在月底基本完工；北京环球度假区参建人员总数已经超过14000人，将在今年年底完成施工。</t>
+  </si>
+  <si>
+    <t>国务院联防联控机制新闻发布会：优化审批服务 促进创业就业</t>
+  </si>
+  <si>
+    <t>国务院联防联控机制今天（3月23日）举行新闻发布会，相关部门将继续优化行政审批等服务，培育壮大经济发展新动能，稳定和扩大就业。据介绍，疫情防控期间，相关部门推行“互联网+”智慧监管，对跨界经营、混合销售等新的经营模式更加包容审慎。目前，各地区各部门普遍实行在线审批，开通应急审批绿色通道，及时纠正不合理的人流物流管控措施，支持企业复工复产达产。今后，还将出台延长创业贷款贴息期限等政策，帮助中小微企业脱困、稳定就业。下一步，国家还将推动线上线下融合快速发展，促进线上问诊、云办公、在线授课、无接触配送等新模式快速发展，加快企业数字化转型。</t>
+  </si>
+  <si>
+    <t>国务院总理李克强3月24日主持召开国务院常务会议，确定推动制造业和流通业在做好疫情防控的同时积极有序复工复产的措施；部署进一步提升我国国际航空货运能力，努力稳定供应链。会议指出，当前全球疫情大流行，对世界经济造成严重冲击，对国内经济带来严峻挑战。要按照党中央、国务院部署，进一步扩大有效需求，助企业、稳就业，更有针对性做好“六稳”工作。要继续科学精准防控，对新发病例发现一起及时依规处置一起，公开透明发布信息。在此基础上，积极有序推动制造业和流通业复工复产复业。一是协调解决制造业全产业链复工复产遇到的困难，保障在全球产业链中有重要影响的企业和关键产品生产出口。二是发展线上零售、餐饮、问诊、教育和农村电商等新业态和便民消费网络。三是落实扶持中小微企业、个体工商户的各项政策。引导金融机构提高对中小微企业的信用贷款、续贷、首贷和中长期贷款比重。鼓励大企业融资后向上下游中小微企业支付预付款。四是针对外需订单萎缩态势，支持企业网上洽谈、网上办展，主动抓订单。根据国际疫情发生新变化的情况，研究推迟今年春季广交会时间以及利用网络等手段举办等替代方案。会议指出，我国国际航空货运能力存在明显短板，受疫情冲击国际航空客机腹舱货运大幅下降，对我国产业的国际供应链带来较大影响。要采取有效措施提高我国国际航空货运能力，既保通保运保供，又增强物流国际竞争力。一要加强国际协作，畅通国际快件等航空货运，对疫情期间国际货运航线给予政策支持。鼓励增加货机，发展全货机运输。一视同仁支持各种所有制航空货运发展，鼓励航空货运企业与物流企业联合重组，支持快递企业发展空中、海外网络。二要完善航空货运枢纽网络。对货运功能较强的机场，放开高峰时段对货运航班的时刻限制。在京津冀、长三角、粤港澳和成渝等地区具备条件的国际枢纽机场实行24小时通关。三要健全航空货运标准，建立航空公司、邮政快递、货站等互通共享的信息平台。升级改造现有机场设施，完善冷链、快件分拣等设施。推进以货运为主的机场建设。会议还研究了其他事项。</t>
+  </si>
+  <si>
+    <t>湖北：稳步推进复工复产</t>
+  </si>
+  <si>
+    <t>湖北统筹疫情防控工作和经济社会发展，稳步推进复工复产。湖北省经信厅发布，截至3月23日，湖北规模以上工业企业复工率达85%。今天（3月24日）上午，武汉市第七座跨汉江通道——武汉江汉七桥建设项目正式复工，武汉地铁8号线二期工程等一批重点项目也于今天上午顺利复工。在恩施州的同广和新材料有限公司里，企业一复工就加足马力赶制年前剩余订单，截至目前，恩施州规模以上工业企业复工率达96.7%。黄石则采用网络“云招商”的方式，一个月内签下来自江苏、广东等地的25个投资项目，总投资117亿元，并为近百个项目在土地、规划、环评等方面主动提供线上服务。今天，湖北省新冠肺炎疫情防控指挥部发布通告称，从3月25日零时起，武汉市以外地区解除离鄂通道管控，4月8日零时起，武汉市解除离汉离鄂通道管控措施，有序恢复对外交通，离鄂离汉人员凭湖北健康码“绿码”安全有序流动。目前，湖北省除武汉外，其余市州城区基本恢复公交车和出租车运营，11个市州还恢复了县级客运班线。</t>
+  </si>
+  <si>
+    <t>多措并举 加速推动复工复产</t>
+  </si>
+  <si>
+    <t>连日来，各地多措并举，出台政策组合拳，加速推动企业复工复产。这两天，总投资203亿元的30个项目在安徽合肥集中签约、开工，涵盖大数据、人工智能、工业互联网、物联网技术等多个领域。上海国家级特种机器人科创中心等一批项目这两天也集中签约，总金额超300亿元。为支持复工，福建福清梳理产业链相关企业名单，优先安排产业链企业复工复产，鼓励产业链龙头企业发挥带动作用，和上下游企业共同应对困难。广东东莞积极推动应用工业互联网平台助力企业复产提效，鼓励和支持企业运用云计算、大数据等新一代信息技术开展工作。山东济南行政审批部门在“容缺受理”的基础上对企业进行信用审核，符合条件的可以一边补齐资料一边“容缺办理”，大大缩短了办事时间，让企业办事效率更高。各地的餐饮业也持续回暖。在做好疫情防控工作的前提下，河北、山西、海南等地有序推动餐饮企业恢复营业并开放堂食。</t>
+  </si>
+  <si>
+    <t>宏观经济</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>各地创新方式，精准施策，给企业提供精细服务，解决复工复产的“最后一公里”问题。今天（3月25日），新疆乌鲁木齐机场改扩建工程和于田机场新建工程复工，截止到目前，30个国家重大机场项目已全部复工。浙江杭州7个重点项目也在今天集中开工，其中多数是外资项目。蒙西-晋中特高压、哈尔滨地铁等一批重大工程也在加紧施工。江苏19个重点续建交通项目现已全部复工，参建人数达9.2万人。在无锡太湖隧道施工现场，工人们正在为隧道顶板浇筑做准备。在东北老工业基地辽宁，装备制造、石化、冶金三大行业的复工率已经恢复到常年水平。为降低疫情影响，辽宁出台25条措施支持中小企业，还建立起大项目跟踪服务和定点帮扶机制。这几天，全国多地的旅游景区陆续恢复开放。民宿客栈、餐饮门店也恢复营业，为游客提供服务。</t>
+  </si>
+  <si>
+    <t>韩正出席推进重大项目建设积极做好稳投资工作电视电话会议</t>
+  </si>
+  <si>
+    <t>中共中央政治局常委、国务院副总理韩正26日在北京出席推进重大项目建设、积极做好稳投资工作电视电话会议并讲话。会议认真学习贯彻习近平总书记重要讲话和指示精神，按照党中央、国务院决策部署，推进重大项目建设、积极做好稳投资工作。韩正表示，在以习近平同志为核心的党中央坚强领导下，防控疫情取得来之不易的阶段性成果。要坚持外防输入、内防反弹，在全面做好防控新冠肺炎疫情工作的基础上，有力有序推进复工复产，恢复经济社会秩序。要切实增强责任感、紧迫感，始终坚持问题导向，有效解决推进重大项目建设面临的瓶颈制约，发挥好有效投资在稳增长中的关键作用。韩正强调，要积极有序推动重大投资项目开工复工，组织工作专班，精准施策，打通用工、运输、原材料供应等堵点，加快恢复正常建设进度。要坚持“资金跟着项目走”的原则，安排好地方政府专项债券项目，优先配套和支持重点领域和重大项目。各地要高度重视项目前期工作，提早谋划，不断充实项目储备库。要以需求为导向，大力推进5G等新型基础设施建设，支持数字经济等新业态发展。强化重大项目建设用地用海等要素保障，畅通审批绿色通道。抓好重大外资项目落地，加快出台进一步扩大开放的政策举措，不断优化营商环境。要加强组织领导，严格项目管理，确保工程质量安全。何立峰出席会议。国家发展改革委、自然资源部和浙江省、江西省、贵州省负责同志作了发言。</t>
+  </si>
+  <si>
+    <t>多措并举 复工复产按下加速键</t>
+  </si>
+  <si>
+    <t>大项目集中开工，旅游业逐步恢复。这几天，各地多措并举，补“断点”、通“堵点”，积极推进复工复产。今天（3月26日）上午，总投资超过7000亿元重大项目在四川多地集中开工，涵盖基础设施、民生及社会事业等领域。四川德阳国内首个发电装备智能制造数字化车间，通过了工业和信息化部的验收，这个数字化车间在生产效率、能源利用率方面均有大幅度提升。湖南长沙针对重点工程，选派干部进驻一线，为企业解决防疫、招工和材料供应等问题。河北自贸区正定片区打通通关和物流渠道，保障外贸企业订单在第一时间交付。恢复产能，用工是最大的难题。江西整合138个网站资源，推广直播招聘，目前已开展线上招聘2300多场次。</t>
+  </si>
+  <si>
+    <t>宏观经济</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞄准难点出实招 复工复产再提速</t>
+  </si>
+  <si>
+    <t>眼下，各行各业复工率逐步提高，各地出实招，打通“堵点”、解决难点，帮助企业复工复产。这两天，一大批重点项目在各地陆续开工复工。宁夏最大的工业基地——宁东能源化工基地首批90个项目今天（3月27日）集中开建，总投资956亿元；冬奥会张家口赛区、陕西榆林的14届全运会拳击比赛场馆、贵州最长公路隧道——兰海高速桐梓隧道，工人们都在加紧施工；重庆巴南区的东盟公路班车已经实现常态化运行，班次同比超过八成；安徽省总投资超过1300亿元的270个项目集中开工。为了解决企业招工难、资金短缺、上下游产业链等问题，各地政府也是想办法、出实招。北京市亦庄经济技术开发区则通过京津冀协同工作机制，快速解决了企业上下游供应链的问题，目前近300家规模以上工业企业全部复工复产；浙江金华金东区通过“云招聘”，为80多家企业解决了2000多个岗位。</t>
+  </si>
+  <si>
+    <t>精准施策突破难点 复工复产加快速度</t>
+  </si>
+  <si>
+    <t>目前，随着复工复产全面推进，各地想办法、出实招，精准施策突破难点，加快复工复产速度。这两天，来自湖北的务工返岗专车抵达湖南长沙，两省打通堵点，互认健康码，务工人员到达后，不用再检测、隔离。目前，已有来自湖北38个县市的300多名工人在长沙上班。辽宁省人社、交通、公安等部门建立协调机制，启动农民工返岗复工“点对点”服务工作，让农民工“从家门到车门，从车门到厂门”。为了解决企业资金、运输等环节的困难，各地政府想办法、拿措施。北京市西城区对在疫情期间为中小微企业减免租金的孵化机构、商务楼宇等企业，经过审核后，给予一定的补助。浙江绍兴柯桥区在短短一个月内设立了5亿元的专项扶持资金、10亿元的专项金融资金，并为中小微企业追加信贷资金额度。一大批重点项目陆续开工复工。今天（3月28日），广西13个高速公路新建项目集中开工。青岛国际邮轮母港区启动建设，同时总投资300多亿元的15个重点项目签约入驻。位于粤港澳大湾区的深圳湾文化广场项目，1000多名工人加紧作业。同时，民生工程项目也抓紧展开。在陕西西安，涉及近万人的老旧小区改造项目有序复工，把受疫情影响的工期抢回来，预计今年10月全部完工。</t>
+  </si>
+  <si>
+    <t>多措并举 湖北农副产品拓宽销售渠道</t>
+  </si>
+  <si>
+    <t>目前离鄂通道已经打开，但是如何快速精准地找到客户，把这些当季的农副产品销售出去，成为了一个新问题。近日，湖北各地多措并举，促进产销对接，确保湖北农副产品销售。这8辆大货车装载着200吨来自湖北的蔬菜食品，目的地是全国果菜销量最大的广州江南果菜批发市场，这是广州春节后在湖北进行的首次大规模采购。江南果菜批发市场是全国乃至东南亚果菜销量最大的批发市场之一，他们通过自身平台和渠道优势，推广湖北特色优质农产品，现在每天对接湖北农产品的量都在稳步上升。在宜昌当阳，村民正在将早上采摘的10吨新鲜莴笋打包装车发往安徽。据了解，通过当地农业合作社产销对接，这里现在每天都有近30吨新鲜蔬菜发往江西、贵州等多个省市。一方面是相关部门积极多措并举拓展农副产品销售渠道，另一方面，农民自己也通过互联网为自家的农副产品寻找新客户。</t>
+  </si>
+  <si>
+    <t>补“断点”通“堵点” 多措并举稳发展</t>
+  </si>
+  <si>
+    <t>当前，各地在做好疫情防控的同时，采取多种举措，补“断点”通“堵点”，加快恢复生产生活秩序。这里是上海洋山深水港，现在每天都有近百艘集装箱船舶从这里驶往欧洲、美国、中东的主要港口。为加速畅通物流，上海海关对复工复产相关物资设立“绿色通道”，最大限度缩短通关时间；海事部门则提供“零跑腿、网上一次办”政务服务。现在，洋山港集装箱吞吐量已经恢复到去年同期的90%以上。打通供需渠道。河南出台政策，对重点项目用料缺口及配套企业生产情况进行包干摸排，目前已摸排出223个重大项目的需求缺口，同时收集了499家建材企业市场供应需求，进行协调对接。为缓解用工紧张，重庆一方面通过“点对点”运送服务，做好人员返岗；一方面推广线上招聘，保障本地企业用工。完善金融扶持。现在正是春茶开采上市的时节，福建福鼎推出多项专属信贷，重点解决茶企在茶青收购、加工生产等环节的资金需求。江西发布金融“战疫情、稳增长”15条举措，南昌县设立惠企政策兑现窗口，专门受理政府补贴、政府奖励等各项优惠政策。打通“堵点”补上“断点”，各地复工复产效率不断提高。今天（3月29日），广州24个重点项目集中投试产，涵盖新基建、生物医药等领域，年产值预计超过1170亿元。在兰州高新区，包括了智能制造、航天科技等一批项目集中开工，总投资超百亿元。</t>
   </si>
 </sst>
 </file>
@@ -1255,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3114,7 +3220,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>20200319</v>
       </c>
@@ -3128,7 +3234,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>20200319</v>
       </c>
@@ -3142,7 +3248,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="115" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>20200320</v>
       </c>
@@ -3156,7 +3262,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>20200320</v>
       </c>
@@ -3170,7 +3276,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>20200320</v>
       </c>
@@ -3184,7 +3290,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>20200320</v>
       </c>
@@ -3198,7 +3304,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="119" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>20200320</v>
       </c>
@@ -3212,7 +3318,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>20200321</v>
       </c>
@@ -3226,7 +3332,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>20200321</v>
       </c>
@@ -3240,13 +3346,229 @@
         <v>278</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122"/>
-      <c r="B122"/>
-      <c r="C122"/>
-      <c r="D122"/>
-      <c r="E122"/>
-      <c r="F122"/>
+    <row r="122" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>20200322</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>20200322</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>20200322</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>20200322</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>20200323</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>20200323</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>20200324</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>20200324</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>20200324</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>20200325</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>20200326</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>20200326</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>20200327</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>20200328</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>20200328</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>20200329</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>312</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A1:F121">
